--- a/biology/Médecine/Agence_nationale_de_contrôle_de_qualité_des_produits_de_santé_et_de_l'eau/Agence_nationale_de_contrôle_de_qualité_des_produits_de_santé_et_de_l'eau.xlsx
+++ b/biology/Médecine/Agence_nationale_de_contrôle_de_qualité_des_produits_de_santé_et_de_l'eau/Agence_nationale_de_contrôle_de_qualité_des_produits_de_santé_et_de_l'eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Agence_nationale_de_contr%C3%B4le_de_qualit%C3%A9_des_produits_de_sant%C3%A9_et_de_l%27eau</t>
+          <t>Agence_nationale_de_contrôle_de_qualité_des_produits_de_santé_et_de_l'eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">ANCQ, abréviation de l'Agence nationale de contrôle de qualité des produits de santé et de l'eau,  est une entité publique béninoise  créée dans la perspective d'assurer le contrôle de la qualité des produits de santé et de l'eau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Agence_nationale_de_contr%C3%B4le_de_qualit%C3%A9_des_produits_de_sant%C3%A9_et_de_l%27eau</t>
+          <t>Agence_nationale_de_contrôle_de_qualité_des_produits_de_santé_et_de_l'eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ANCQ est créée par décret 2020-257 du 29 avril 2020. C'est la fusion de deux laboratoires spécialisés qui donnée naissance à l'Agence nationale de contrôle de qualité des produits de santé et de l'eau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ANCQ est créée par décret 2020-257 du 29 avril 2020. C'est la fusion de deux laboratoires spécialisés qui donnée naissance à l'Agence nationale de contrôle de qualité des produits de santé et de l'eau.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Agence_nationale_de_contr%C3%B4le_de_qualit%C3%A9_des_produits_de_sant%C3%A9_et_de_l%27eau</t>
+          <t>Agence_nationale_de_contrôle_de_qualité_des_produits_de_santé_et_de_l'eau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Missions et attributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ANCQ a pour autre mission d'effectuer des inspections sanitaires de l'eau potable fournie par les entités responsables de la production et de la distribution de l'eau destinée à la consommation[1],[2],[3],[4],[5],[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ANCQ a pour autre mission d'effectuer des inspections sanitaires de l'eau potable fournie par les entités responsables de la production et de la distribution de l'eau destinée à la consommation.
 </t>
         </is>
       </c>
